--- a/public/duplicates.xlsx
+++ b/public/duplicates.xlsx
@@ -397,72 +397,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Lead_Name</v>
+        <v>Lead_Name*</v>
       </c>
       <c r="B1" t="str">
         <v>Mobile_No</v>
       </c>
       <c r="C1" t="str">
-        <v>DesignationDept</v>
+        <v>Organization_Name*</v>
       </c>
       <c r="D1" t="str">
-        <v>Organization_Name</v>
+        <v>Product_Name*</v>
       </c>
       <c r="E1" t="str">
-        <v>Address</v>
+        <v>Status*</v>
       </c>
       <c r="F1" t="str">
-        <v>Product_Name</v>
+        <v>Source*</v>
       </c>
       <c r="G1" t="str">
-        <v>Status</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Source</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Assigned_To</v>
+        <v>Assigned_To*</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Karan Singh</v>
+        <v>YP Singh</v>
       </c>
       <c r="B2">
-        <v>9812345678</v>
+        <v>9868158591</v>
       </c>
       <c r="C2" t="str">
-        <v>Business Analyst</v>
+        <v>IIT Delhi</v>
       </c>
       <c r="D2" t="str">
-        <v>Global Insights</v>
+        <v>EIGAP</v>
       </c>
       <c r="E2" t="str">
-        <v>Vashi, Navi Mumbai, Maharashtra - 400703</v>
+        <v>initial</v>
       </c>
       <c r="F2" t="str">
-        <v>Map Data</v>
+        <v>Excel File</v>
       </c>
       <c r="G2" t="str">
-        <v>inactive</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Dr. Atul Kapoor</v>
-      </c>
-      <c r="I2" t="str">
-        <v>Subodh Kumar</v>
+        <v>Rwitabun Bhattachrya</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
   </ignoredErrors>
 </worksheet>
 </file>